--- a/C9200L-24T-4X-E_VI.xlsx
+++ b/C9200L-24T-4X-E_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specssssss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specsss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B018B6-17CD-48A8-94B1-50ECD5B00321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B285365-C99A-403C-B02C-27C4581949F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{51B3BCB1-5D1C-4CB5-9267-92741372EB39}"/>
   </bookViews>
